--- a/data_voor_swing/gebiedsdefinities/elzantw.xlsx
+++ b/data_voor_swing/gebiedsdefinities/elzantw.xlsx
@@ -1,40 +1,56 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr showObjects="all" updateLinks="userSet" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\gebiedsniveaus\data_voor_swing\gebiedsdefinities\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F8B071-56D9-4510-A92C-2B07B9728ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" xWindow="480" yWindow="75" windowWidth="18075" windowHeight="12525" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-28920" yWindow="1245" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="elzantw" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="elzantw" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" calcMode="auto" refMode="A1" iterateCount="100"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+  <si>
+    <t>Antwerpen Centrum</t>
+  </si>
+  <si>
+    <t>Antwerpen Oost</t>
+  </si>
+  <si>
+    <t>Antwerpen Zuid</t>
+  </si>
+  <si>
+    <t>Noord Antwerpen</t>
+  </si>
+  <si>
+    <t>volgnr</t>
+  </si>
+  <si>
+    <t>gebiedscode</t>
+  </si>
+  <si>
+    <t>naam_kort</t>
+  </si>
+  <si>
+    <t>naam</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="17">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.00"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="0.00000"/>
-    <numFmt numFmtId="170" formatCode="0.000000"/>
-    <numFmt numFmtId="171" formatCode="0.0000000"/>
-    <numFmt numFmtId="172" formatCode="0.00000000"/>
-    <numFmt numFmtId="173" formatCode="0.000000000"/>
-    <numFmt numFmtId="174" formatCode="0.0000000000"/>
-    <numFmt numFmtId="175" formatCode="0.00000000000"/>
-    <numFmt numFmtId="176" formatCode="0.000000000000"/>
-    <numFmt numFmtId="177" formatCode="0.0000000000000"/>
-    <numFmt numFmtId="178" formatCode="0.00000000000000"/>
-    <numFmt numFmtId="179" formatCode="0.000000000000000"/>
-    <numFmt numFmtId="180" formatCode="0.0000000000000000"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,44 +79,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -138,7 +140,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -172,6 +174,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -206,9 +209,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -381,105 +385,83 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" s="0" outlineLevel="0">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>volgnr</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>gebiedscode</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>naam_kort</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>naam</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="0" outlineLevel="0">
-      <c r="A2" s="23">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Antwerpen Centrum</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Antwerpen Centrum</t>
-        </is>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="0" outlineLevel="0">
-      <c r="A3" s="23">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Antwerpen Oost</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Antwerpen Oost</t>
-        </is>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="0" outlineLevel="0">
-      <c r="A4" s="23">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Antwerpen Zuid</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Antwerpen Zuid</t>
-        </is>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="0" outlineLevel="0">
-      <c r="A5" s="23">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Noord Antwerpen</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Noord Antwerpen</t>
-        </is>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
